--- a/data/pca/factorExposure/factorExposure_2013-05-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-05-16.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001520859037541358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001986970612882586</v>
+      </c>
+      <c r="C2">
+        <v>-0.03245846123502359</v>
+      </c>
+      <c r="D2">
+        <v>-0.00696118065038829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001939738980027497</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006022265494413359</v>
+      </c>
+      <c r="C4">
+        <v>-0.08436846655359402</v>
+      </c>
+      <c r="D4">
+        <v>-0.07813957078508924</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>7.742275113221894e-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01342491713479741</v>
+      </c>
+      <c r="C6">
+        <v>-0.1076117976888222</v>
+      </c>
+      <c r="D6">
+        <v>-0.03435297964078208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.00178734044579766</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.00478851390141614</v>
+      </c>
+      <c r="C7">
+        <v>-0.05284093008189186</v>
+      </c>
+      <c r="D7">
+        <v>-0.03964141294701251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.00195155536631874</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005621932382575532</v>
+      </c>
+      <c r="C8">
+        <v>-0.03657298308727321</v>
+      </c>
+      <c r="D8">
+        <v>-0.03952014447882853</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.004773420112457596</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.003995802073596854</v>
+      </c>
+      <c r="C9">
+        <v>-0.06920351023193445</v>
+      </c>
+      <c r="D9">
+        <v>-0.07046632997313712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.003629479413336854</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005719621786589611</v>
+      </c>
+      <c r="C10">
+        <v>-0.07483774824143194</v>
+      </c>
+      <c r="D10">
+        <v>0.209946332493442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003877324650331187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005146752990462221</v>
+      </c>
+      <c r="C11">
+        <v>-0.07807538085465357</v>
+      </c>
+      <c r="D11">
+        <v>-0.06461223231146124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0002795908357725306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003828168333981624</v>
+      </c>
+      <c r="C12">
+        <v>-0.06351130577549666</v>
+      </c>
+      <c r="D12">
+        <v>-0.04737057430404285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003376124487709561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008590513808589051</v>
+      </c>
+      <c r="C13">
+        <v>-0.0683819994782686</v>
+      </c>
+      <c r="D13">
+        <v>-0.06724743837801228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002456866454011488</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.00152340691283437</v>
+      </c>
+      <c r="C14">
+        <v>-0.0466465967740645</v>
+      </c>
+      <c r="D14">
+        <v>-0.013604298715351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.002446608690969808</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005874325522881207</v>
+      </c>
+      <c r="C15">
+        <v>-0.03877711081375136</v>
+      </c>
+      <c r="D15">
+        <v>-0.03725812935853997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.002056021886556832</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004834891306797118</v>
+      </c>
+      <c r="C16">
+        <v>-0.06410818906962898</v>
+      </c>
+      <c r="D16">
+        <v>-0.04950263127785912</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0001123893265375092</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008963359548927238</v>
+      </c>
+      <c r="C20">
+        <v>-0.06459420802976934</v>
+      </c>
+      <c r="D20">
+        <v>-0.05664412746150137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.003898098937777803</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009981443341542129</v>
+      </c>
+      <c r="C21">
+        <v>-0.02338219131071238</v>
+      </c>
+      <c r="D21">
+        <v>-0.0338499624652351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01649338381992164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006907797465683895</v>
+      </c>
+      <c r="C22">
+        <v>-0.0923968831865864</v>
+      </c>
+      <c r="D22">
+        <v>-0.100261900396312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01683633164968621</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006699267969488877</v>
+      </c>
+      <c r="C23">
+        <v>-0.09342970467718106</v>
+      </c>
+      <c r="D23">
+        <v>-0.1008449592094111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002770030854599319</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004759912480467705</v>
+      </c>
+      <c r="C24">
+        <v>-0.07266381683629097</v>
+      </c>
+      <c r="D24">
+        <v>-0.0620980394777764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004541191571491359</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002743314114032438</v>
+      </c>
+      <c r="C25">
+        <v>-0.07704414482932739</v>
+      </c>
+      <c r="D25">
+        <v>-0.06646194004961756</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006184607486251296</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003538370553309683</v>
+      </c>
+      <c r="C26">
+        <v>-0.04053769152773544</v>
+      </c>
+      <c r="D26">
+        <v>-0.02618905546677441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005947330238886766</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.000286864684274425</v>
+      </c>
+      <c r="C28">
+        <v>-0.1264091308997395</v>
+      </c>
+      <c r="D28">
+        <v>0.3092874043091185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.002494006683404602</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003212049399519486</v>
+      </c>
+      <c r="C29">
+        <v>-0.04802883083170504</v>
+      </c>
+      <c r="D29">
+        <v>-0.01470083738482508</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.004036748582000412</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008655492010909789</v>
+      </c>
+      <c r="C30">
+        <v>-0.1367421864717099</v>
+      </c>
+      <c r="D30">
+        <v>-0.1099943044773819</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.000251198742071727</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.00606352230679753</v>
+      </c>
+      <c r="C31">
+        <v>-0.04513132671015507</v>
+      </c>
+      <c r="D31">
+        <v>-0.03179624689676915</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.00199770038169935</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004068867061867557</v>
+      </c>
+      <c r="C32">
+        <v>-0.04134837853980152</v>
+      </c>
+      <c r="D32">
+        <v>-0.0137523706326226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003087039776607253</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007738220660281925</v>
+      </c>
+      <c r="C33">
+        <v>-0.08212599177644762</v>
+      </c>
+      <c r="D33">
+        <v>-0.07419142828666171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004739984522624224</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003699411127550412</v>
+      </c>
+      <c r="C34">
+        <v>-0.05720387858831195</v>
+      </c>
+      <c r="D34">
+        <v>-0.04755978280783936</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.003469479028994907</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004815071304202096</v>
+      </c>
+      <c r="C35">
+        <v>-0.03867481859029874</v>
+      </c>
+      <c r="D35">
+        <v>-0.01274648718882273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004414300878308466</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001339491935826135</v>
+      </c>
+      <c r="C36">
+        <v>-0.02346932204845</v>
+      </c>
+      <c r="D36">
+        <v>-0.02203274384034924</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002393048203377265</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009337264380629807</v>
+      </c>
+      <c r="C38">
+        <v>-0.03244617666114996</v>
+      </c>
+      <c r="D38">
+        <v>-0.02116869941710692</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01325819057153957</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0009976999774693033</v>
+      </c>
+      <c r="C39">
+        <v>-0.1147572788322831</v>
+      </c>
+      <c r="D39">
+        <v>-0.0852797570324387</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.007420477860389639</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002256446230627538</v>
+      </c>
+      <c r="C40">
+        <v>-0.08677126767579353</v>
+      </c>
+      <c r="D40">
+        <v>-0.02253740226968961</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0002953520210385283</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007384287462446407</v>
+      </c>
+      <c r="C41">
+        <v>-0.03856036136240149</v>
+      </c>
+      <c r="D41">
+        <v>-0.03557040701599411</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002968814295426082</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003463343927069408</v>
+      </c>
+      <c r="C43">
+        <v>-0.0499681120534838</v>
+      </c>
+      <c r="D43">
+        <v>-0.02726890561583657</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004353032071458947</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003700383337265617</v>
+      </c>
+      <c r="C44">
+        <v>-0.10824856341839</v>
+      </c>
+      <c r="D44">
+        <v>-0.08435608526094011</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002126225207007386</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002293801793283821</v>
+      </c>
+      <c r="C46">
+        <v>-0.03446633330555757</v>
+      </c>
+      <c r="D46">
+        <v>-0.03269219253162347</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0008038971920155502</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002862993538455936</v>
+      </c>
+      <c r="C47">
+        <v>-0.03918696780024459</v>
+      </c>
+      <c r="D47">
+        <v>-0.0227940173012618</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003972867327642417</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006400745757288986</v>
+      </c>
+      <c r="C48">
+        <v>-0.02865147885274092</v>
+      </c>
+      <c r="D48">
+        <v>-0.03073419298656464</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01297146357956038</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01404649686370474</v>
+      </c>
+      <c r="C49">
+        <v>-0.1710413227901314</v>
+      </c>
+      <c r="D49">
+        <v>-0.03474992323201308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>1.177461051769956e-05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003623656836972041</v>
+      </c>
+      <c r="C50">
+        <v>-0.04215897798728561</v>
+      </c>
+      <c r="D50">
+        <v>-0.03603264494071873</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001819664451354853</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004281530471284282</v>
+      </c>
+      <c r="C51">
+        <v>-0.01977863832640204</v>
+      </c>
+      <c r="D51">
+        <v>-0.03289932338986126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001445725885170357</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.0203100510086615</v>
+      </c>
+      <c r="C53">
+        <v>-0.1653770585278909</v>
+      </c>
+      <c r="D53">
+        <v>-0.05016302851416027</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-3.4465173997601e-06</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008549513666466231</v>
+      </c>
+      <c r="C54">
+        <v>-0.05495091367453613</v>
+      </c>
+      <c r="D54">
+        <v>-0.04210977023974376</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004398095356056712</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009312844852070859</v>
+      </c>
+      <c r="C55">
+        <v>-0.1052509527646882</v>
+      </c>
+      <c r="D55">
+        <v>-0.05294689607867209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003875760469904026</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01949719812291521</v>
+      </c>
+      <c r="C56">
+        <v>-0.1712136243250728</v>
+      </c>
+      <c r="D56">
+        <v>-0.05013716482262628</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.008357252628741062</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01940634147703552</v>
+      </c>
+      <c r="C58">
+        <v>-0.1025101795315616</v>
+      </c>
+      <c r="D58">
+        <v>-0.07315793475156872</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.007809971709471323</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009625598818126406</v>
+      </c>
+      <c r="C59">
+        <v>-0.1702020727018515</v>
+      </c>
+      <c r="D59">
+        <v>0.2812557174567609</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.005559095446491516</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02333480425199417</v>
+      </c>
+      <c r="C60">
+        <v>-0.2210483256279166</v>
+      </c>
+      <c r="D60">
+        <v>-0.02974357525421853</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01443922502304572</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.0020163496051186</v>
+      </c>
+      <c r="C61">
+        <v>-0.09444004086917068</v>
+      </c>
+      <c r="D61">
+        <v>-0.06334572935929521</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.180412436290437</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1437316013792263</v>
+      </c>
+      <c r="C62">
+        <v>-0.07761423328403366</v>
+      </c>
+      <c r="D62">
+        <v>-0.05557283381826299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001463701528525058</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006368155750437424</v>
+      </c>
+      <c r="C63">
+        <v>-0.05888687382317925</v>
+      </c>
+      <c r="D63">
+        <v>-0.02648842205195715</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.006026152544611444</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01468347771196679</v>
+      </c>
+      <c r="C64">
+        <v>-0.1024964580629991</v>
+      </c>
+      <c r="D64">
+        <v>-0.06531979788663519</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.0009518617122318104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.0171480603704794</v>
+      </c>
+      <c r="C65">
+        <v>-0.1146695025700123</v>
+      </c>
+      <c r="D65">
+        <v>-0.02835124939608053</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.008066484801482698</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01216664944316193</v>
+      </c>
+      <c r="C66">
+        <v>-0.1533959687800902</v>
+      </c>
+      <c r="D66">
+        <v>-0.1234763037992254</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002656632932266205</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01542157569211775</v>
+      </c>
+      <c r="C67">
+        <v>-0.06218992331560475</v>
+      </c>
+      <c r="D67">
+        <v>-0.03314974520790877</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.008042188717075205</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001393759606852406</v>
+      </c>
+      <c r="C68">
+        <v>-0.108861190489855</v>
+      </c>
+      <c r="D68">
+        <v>0.2617752909854374</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002822844251293753</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005862244844675389</v>
+      </c>
+      <c r="C69">
+        <v>-0.0474633954318919</v>
+      </c>
+      <c r="D69">
+        <v>-0.04279837746383156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001743311319441174</v>
+      </c>
+      <c r="C70">
+        <v>-0.002025628553606083</v>
+      </c>
+      <c r="D70">
+        <v>-0.00215965421336957</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.004042521751022083</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006264561493383321</v>
+      </c>
+      <c r="C71">
+        <v>-0.1118765802511591</v>
+      </c>
+      <c r="D71">
+        <v>0.2842806306976167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.008347731155141393</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01558213978286914</v>
+      </c>
+      <c r="C72">
+        <v>-0.1482576682329275</v>
+      </c>
+      <c r="D72">
+        <v>-0.02576493796973232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01220562357107252</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02918815372828343</v>
+      </c>
+      <c r="C73">
+        <v>-0.2817683208693517</v>
+      </c>
+      <c r="D73">
+        <v>-0.05058700424412414</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004016232979494613</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001437448940065241</v>
+      </c>
+      <c r="C74">
+        <v>-0.1048024382367507</v>
+      </c>
+      <c r="D74">
+        <v>-0.04453405310050028</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.006025829653412607</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01061977154862322</v>
+      </c>
+      <c r="C75">
+        <v>-0.1307088877285679</v>
+      </c>
+      <c r="D75">
+        <v>-0.03539493376318787</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01209750820850198</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02126628512212018</v>
+      </c>
+      <c r="C76">
+        <v>-0.146187509036957</v>
+      </c>
+      <c r="D76">
+        <v>-0.0734525987068312</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.00192653438036188</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.0242940646252784</v>
+      </c>
+      <c r="C77">
+        <v>-0.1336555686766313</v>
+      </c>
+      <c r="D77">
+        <v>-0.06593663637245091</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0007886232208813334</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01413853362689115</v>
+      </c>
+      <c r="C78">
+        <v>-0.09173467736984779</v>
+      </c>
+      <c r="D78">
+        <v>-0.06742909715918612</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02655211644937737</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03676559813362861</v>
+      </c>
+      <c r="C79">
+        <v>-0.1558911829193093</v>
+      </c>
+      <c r="D79">
+        <v>-0.03476743278979223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005254864107582366</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01049173616437333</v>
+      </c>
+      <c r="C80">
+        <v>-0.04108411481321431</v>
+      </c>
+      <c r="D80">
+        <v>-0.03373572974198509</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0002067631414214336</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01446841535451465</v>
+      </c>
+      <c r="C81">
+        <v>-0.1209172221637925</v>
+      </c>
+      <c r="D81">
+        <v>-0.05805960504286305</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.00662622081333042</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01948122143429533</v>
+      </c>
+      <c r="C82">
+        <v>-0.1417916808120155</v>
+      </c>
+      <c r="D82">
+        <v>-0.04694670668683185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.005903910942206215</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.00972575645842145</v>
+      </c>
+      <c r="C83">
+        <v>-0.05322719111523211</v>
+      </c>
+      <c r="D83">
+        <v>-0.04802277844606405</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01359411449874467</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01174235444303538</v>
+      </c>
+      <c r="C84">
+        <v>-0.03170864995141921</v>
+      </c>
+      <c r="D84">
+        <v>9.067047209588563e-05</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01575832622732213</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02789039458884622</v>
+      </c>
+      <c r="C85">
+        <v>-0.1278438740940112</v>
+      </c>
+      <c r="D85">
+        <v>-0.05226416044098244</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002479106790539919</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005575040582537702</v>
+      </c>
+      <c r="C86">
+        <v>-0.0500421544868546</v>
+      </c>
+      <c r="D86">
+        <v>-0.0218085875650597</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.007325160802281101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.0100657952950485</v>
+      </c>
+      <c r="C87">
+        <v>-0.1277411603920436</v>
+      </c>
+      <c r="D87">
+        <v>-0.08134259249577516</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01415739509412904</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002836566452300313</v>
+      </c>
+      <c r="C88">
+        <v>-0.06879219071601644</v>
+      </c>
+      <c r="D88">
+        <v>-0.01646908778931237</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01709879280061539</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.0008608672301728906</v>
+      </c>
+      <c r="C89">
+        <v>-0.1629018641425832</v>
+      </c>
+      <c r="D89">
+        <v>0.3426817473770584</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.004160252353433534</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007589402152613208</v>
+      </c>
+      <c r="C90">
+        <v>-0.1409267549104287</v>
+      </c>
+      <c r="D90">
+        <v>0.3164720449572226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002068097907029238</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01020618242644411</v>
+      </c>
+      <c r="C91">
+        <v>-0.104781099431585</v>
+      </c>
+      <c r="D91">
+        <v>-0.02057111927951283</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01375088805925809</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0007276082456222809</v>
+      </c>
+      <c r="C92">
+        <v>-0.1519825869393593</v>
+      </c>
+      <c r="D92">
+        <v>0.3275052712706368</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.002740292319141755</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005560318577520682</v>
+      </c>
+      <c r="C93">
+        <v>-0.1258399263669739</v>
+      </c>
+      <c r="D93">
+        <v>0.312909311645415</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004521818797576405</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.022206274501801</v>
+      </c>
+      <c r="C94">
+        <v>-0.1556335764404261</v>
+      </c>
+      <c r="D94">
+        <v>-0.03567989699076429</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004252204269864753</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01598308341994295</v>
+      </c>
+      <c r="C95">
+        <v>-0.1236291484671592</v>
+      </c>
+      <c r="D95">
+        <v>-0.06959298710832904</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.001927666475878901</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03469474271040624</v>
+      </c>
+      <c r="C97">
+        <v>-0.1786099754773192</v>
+      </c>
+      <c r="D97">
+        <v>-0.04247572485231785</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.00634300916356802</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03558919847089705</v>
+      </c>
+      <c r="C98">
+        <v>-0.253583999364532</v>
+      </c>
+      <c r="D98">
+        <v>-0.04622732035587807</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9813292511000056</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9827367425269828</v>
+      </c>
+      <c r="C99">
+        <v>0.1095847698422554</v>
+      </c>
+      <c r="D99">
+        <v>0.03232412872130902</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.002455656268333455</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003254127969833651</v>
+      </c>
+      <c r="C101">
+        <v>-0.04805498343883289</v>
+      </c>
+      <c r="D101">
+        <v>-0.01507667617830816</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
